--- a/Dissertation Graphs/FNN Online Graphs.xlsx
+++ b/Dissertation Graphs/FNN Online Graphs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Dissertation Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525EA54-2177-448A-9F67-3DB07D6EC7FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61045FB7-14D7-43F8-820A-378CFA8C14CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D468815-7203-4649-8ECC-FA2540EB9C3C}"/>
   </bookViews>
@@ -3980,7 +3980,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1400" b="1"/>
-                  <a:t>Biomass Concentration (g/L)</a:t>
+                  <a:t>Nitrate Concentration (g/L)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9030,179 +9030,179 @@
     </row>
     <row r="30" spans="1:14">
       <c r="B30">
-        <f>ABS((J2-B2)/J2)*100</f>
+        <f t="shared" ref="B30:D31" si="0">ABS((J2-B2)/J2)*100</f>
         <v>0</v>
       </c>
       <c r="C30">
-        <f>ABS((K2-C2)/K2)*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" t="e">
-        <f>ABS((L2-D2)/L2)*100</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="B31">
-        <f>ABS((J3-B3)/J3)*100</f>
+        <f t="shared" si="0"/>
         <v>8.9149860311871088</v>
       </c>
       <c r="C31">
-        <f>ABS((K3-C3)/K3)*100</f>
+        <f t="shared" si="0"/>
         <v>4.3149263598712642</v>
       </c>
       <c r="D31">
-        <f>ABS((L3-D3)/L3)*100</f>
+        <f t="shared" si="0"/>
         <v>36.960522763911804</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="B32">
-        <f t="shared" ref="B31:B42" si="0">ABS((J4-B4)/J4)*100</f>
+        <f t="shared" ref="B32:B42" si="1">ABS((J4-B4)/J4)*100</f>
         <v>3.9446980287014695</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:D32" si="1">ABS((K4-C4)/K4)*100</f>
+        <f t="shared" ref="C32:D32" si="2">ABS((K4-C4)/K4)*100</f>
         <v>9.0437769122488305</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6894521894862313</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0041387896482903</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:D33" si="2">ABS((K5-C5)/K5)*100</f>
+        <f t="shared" ref="C33:D33" si="3">ABS((K5-C5)/K5)*100</f>
         <v>1.0202088945817047</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6211341061470934</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.550439875289243</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:D34" si="3">ABS((K6-C6)/K6)*100</f>
+        <f t="shared" ref="C34:D34" si="4">ABS((K6-C6)/K6)*100</f>
         <v>13.043973406503643</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0685165460553097</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3629922933609682</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:D35" si="4">ABS((K7-C7)/K7)*100</f>
+        <f t="shared" ref="C35:D35" si="5">ABS((K7-C7)/K7)*100</f>
         <v>21.78033073617809</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9525150210773522</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9088216093018826</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:D36" si="5">ABS((K8-C8)/K8)*100</f>
+        <f t="shared" ref="C36:D36" si="6">ABS((K8-C8)/K8)*100</f>
         <v>21.341122700864972</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6434745493027378</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45951212810618602</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:D37" si="6">ABS((K9-C9)/K9)*100</f>
+        <f t="shared" ref="C37:D37" si="7">ABS((K9-C9)/K9)*100</f>
         <v>3.3039067888186544</v>
       </c>
       <c r="D37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4211791658099369</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9018959755766862</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:D38" si="7">ABS((K10-C10)/K10)*100</f>
+        <f t="shared" ref="C38:D38" si="8">ABS((K10-C10)/K10)*100</f>
         <v>5.5710914795271194</v>
       </c>
       <c r="D38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5957335568510782</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6371780965510188</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:D39" si="8">ABS((K11-C11)/K11)*100</f>
+        <f t="shared" ref="C39:D39" si="9">ABS((K11-C11)/K11)*100</f>
         <v>0.21931930320743448</v>
       </c>
       <c r="D39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.24744044769019921</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41541215584547503</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:D40" si="9">ABS((K12-C12)/K12)*100</f>
+        <f t="shared" ref="C40:D40" si="10">ABS((K12-C12)/K12)*100</f>
         <v>5.7654743472901355</v>
       </c>
       <c r="D40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.065805794801727</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13849129638957774</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:D41" si="10">ABS((K13-C13)/K13)*100</f>
+        <f t="shared" ref="C41:D41" si="11">ABS((K13-C13)/K13)*100</f>
         <v>3.481770991432624</v>
       </c>
       <c r="D41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.43248815724088835</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9564441934553842</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:D42" si="11">ABS((K14-C14)/K14)*100</f>
+        <f t="shared" ref="C42" si="12">ABS((K14-C14)/K14)*100</f>
         <v>1.440481267428561</v>
       </c>
       <c r="D42">
@@ -9251,161 +9251,161 @@
         <v>5.4849351507733868</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:D57" si="12">ABS((L16-D16)/L16)*100</f>
+        <f t="shared" ref="D46:D57" si="13">ABS((L16-D16)/L16)*100</f>
         <v>38.993900929477377</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47">
-        <f t="shared" ref="B46:C57" si="13">ABS((J17-B17)/J17)*100</f>
+        <f t="shared" ref="B47:C57" si="14">ABS((J17-B17)/J17)*100</f>
         <v>1.821727156008186</v>
       </c>
       <c r="C47">
+        <f t="shared" si="14"/>
+        <v>10.977183854725309</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="13"/>
-        <v>10.977183854725309</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="12"/>
         <v>1.8754770970021577</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48">
+        <f t="shared" si="14"/>
+        <v>5.0172906150948631</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="14"/>
+        <v>7.4042883339551269</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="13"/>
-        <v>5.0172906150948631</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="13"/>
-        <v>7.4042883339551269</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="12"/>
         <v>6.9992184858040911</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="B49">
+        <f t="shared" si="14"/>
+        <v>2.2000408517238861</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="14"/>
+        <v>6.6605779592623353</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="13"/>
-        <v>2.2000408517238861</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="13"/>
-        <v>6.6605779592623353</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="12"/>
         <v>7.7194761398662406</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50">
+        <f t="shared" si="14"/>
+        <v>8.3458544008694453</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="14"/>
+        <v>8.3009371030745136</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="13"/>
-        <v>8.3458544008694453</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="13"/>
-        <v>8.3009371030745136</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="12"/>
         <v>1.5297500625591145</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51">
+        <f t="shared" si="14"/>
+        <v>1.8348534503627396</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="14"/>
+        <v>5.6126133352584793</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="13"/>
-        <v>1.8348534503627396</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="13"/>
-        <v>5.6126133352584793</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="12"/>
         <v>7.6975968633360203</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="B52">
+        <f t="shared" si="14"/>
+        <v>1.2194983660842182</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="14"/>
+        <v>14.474661475780657</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="13"/>
-        <v>1.2194983660842182</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="13"/>
-        <v>14.474661475780657</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="12"/>
         <v>8.4610377025456511</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="B53">
+        <f t="shared" si="14"/>
+        <v>3.3755219355401418</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="14"/>
+        <v>14.074306634478898</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="13"/>
-        <v>3.3755219355401418</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="13"/>
-        <v>14.074306634478898</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="12"/>
         <v>0.74055922082634762</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54">
+        <f t="shared" si="14"/>
+        <v>2.5312831883232523</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="14"/>
+        <v>2.2151853877937122</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="13"/>
-        <v>2.5312831883232523</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="13"/>
-        <v>2.2151853877937122</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="12"/>
         <v>2.6697801698427686</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55">
+        <f t="shared" si="14"/>
+        <v>1.2339834156273231</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="14"/>
+        <v>1.6558258673575541</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="13"/>
-        <v>1.2339834156273231</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="13"/>
-        <v>1.6558258673575541</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="12"/>
         <v>1.0540117841815471</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="B56">
+        <f t="shared" si="14"/>
+        <v>2.4898884054013406</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="14"/>
+        <v>6.5153828927497148</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="13"/>
-        <v>2.4898884054013406</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="13"/>
-        <v>6.5153828927497148</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="12"/>
         <v>2.6633981113669658</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="B57">
+        <f t="shared" si="14"/>
+        <v>1.4384364062116874</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="14"/>
+        <v>11.77623304960234</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="13"/>
-        <v>1.4384364062116874</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="13"/>
-        <v>11.77623304960234</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="12"/>
         <v>0.76022109531705762</v>
       </c>
     </row>

--- a/Dissertation Graphs/FNN Online Graphs.xlsx
+++ b/Dissertation Graphs/FNN Online Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Dissertation Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61045FB7-14D7-43F8-820A-378CFA8C14CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0168FAB-E352-447F-ACC3-6A5E5A8AF18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D468815-7203-4649-8ECC-FA2540EB9C3C}"/>
   </bookViews>
@@ -1378,6 +1378,7 @@
         <c:axId val="1745309855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3702,6 +3703,20 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1745796063"/>
+        <c:axId val="1745291967"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3841,8 +3856,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1745796063"/>
-        <c:axId val="1745291967"/>
+        <c:axId val="1202872000"/>
+        <c:axId val="1202867424"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1745796063"/>
@@ -3980,7 +3995,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1400" b="1"/>
-                  <a:t>Nitrate Concentration (g/L)</a:t>
+                  <a:t>Nitrate Concentration (mg/L)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4057,6 +4072,68 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1745796063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1202867424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202872000"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1202872000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1202867424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8014,8 +8091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B89DBDA-50D9-4F6F-BAA9-2C21C8522EE7}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ26" sqref="AQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Dissertation Graphs/FNN Online Graphs.xlsx
+++ b/Dissertation Graphs/FNN Online Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Dissertation Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0168FAB-E352-447F-ACC3-6A5E5A8AF18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F19C7-E151-4D62-BBE0-CD9ACF772710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D468815-7203-4649-8ECC-FA2540EB9C3C}"/>
   </bookViews>
@@ -8091,8 +8091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B89DBDA-50D9-4F6F-BAA9-2C21C8522EE7}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ26" sqref="AQ26"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
